--- a/01-memo/进度管理/文档进度.xlsx
+++ b/01-memo/进度管理/文档进度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ED3A4C-5BA9-43B8-A066-401595518A3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08E2F4E-162D-48C2-BF67-04392E3D1D34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="陈薇薇" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,6 +322,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -923,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29758C79-9492-4BE1-B770-EC3B20DE8946}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -956,6 +959,9 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="6">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1016,5 +1022,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01-memo/进度管理/文档进度.xlsx
+++ b/01-memo/进度管理/文档进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08E2F4E-162D-48C2-BF67-04392E3D1D34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DF1D71-AB10-42E2-83C9-705BAD66E94B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,10 +321,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -788,7 +788,7 @@
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -796,25 +796,25 @@
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -927,7 +927,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -959,9 +959,7 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6">
-        <v>0.11</v>
-      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/01-memo/进度管理/文档进度.xlsx
+++ b/01-memo/进度管理/文档进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DF1D71-AB10-42E2-83C9-705BAD66E94B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC55E7D0-533E-4845-8BF0-55EC225637DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,7 +610,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -736,7 +736,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -927,7 +927,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -976,6 +976,9 @@
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">

--- a/01-memo/进度管理/文档进度.xlsx
+++ b/01-memo/进度管理/文档进度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC55E7D0-533E-4845-8BF0-55EC225637DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041A4467-AE9D-4863-B623-07B9BAA778CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="陈薇薇" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -37,81 +37,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>S1目标问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2解决方案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1系统架构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2技术选型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3业务分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1项目背景</t>
-  </si>
-  <si>
-    <t>1.2项目目标</t>
-  </si>
-  <si>
-    <t>2.4核心技术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3实现过程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1团队分工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2流程安排</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S4项目亮点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个子标签代表一个项目亮点，至少三个至多不限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色代表子标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2A目标与服务类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2A1赛题价值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2A1.1概述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2A1.2项目目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2A1.3价值分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色部分可以等陈薇薇文档完成后参考完善</t>
+    <t>完成进度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1B1目标问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1B1.1项目背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1B1.2项目目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1B2解决思路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1B3实现过程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1B4项目亮点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色代表亮点，至少三个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2A目标服务模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2A1 1.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -119,132 +85,62 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>可以等陈薇薇文档完成后最后完善</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2B组织管理与业务分析方案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2B1项目来源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与车志伟协商完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2B3业务分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2B3.1系统需求分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2B3.2功能分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2C技术路线及实现方案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2C1项目简介</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2C2设计原则</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2C3开发流程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2C4总体主功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2C5总体技术路线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2C5.1系统架构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2C5.2技术选型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2C6技术策略</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2C7安全策略</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与张天、车志伟共同完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2C8系统部分数据表设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2D成本模型及可行性分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2D1引言</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2D2成本计算(S2D2.1开发工作量)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2D3可行性分析（具体包含如下：）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2D3.1经济可行性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2D3.2技术可行性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2D3.3操作可行性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2D3.4可行性总结</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成进度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1二维码预约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2智能维修提醒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3大数据智能预约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>S2A3总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2B 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2B2业务分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2C1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2C2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2C3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2C4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2C5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2C6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括目录下子标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2D1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2D2</t>
+  </si>
+  <si>
+    <t>S2D3</t>
   </si>
 </sst>
 </file>
@@ -609,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -632,85 +528,57 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>4.3</v>
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>51</v>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
@@ -733,10 +601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE4EE57-AFFB-4EF1-A7FE-2F21C2110B54}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -757,79 +625,93 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C5:C9"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -837,10 +719,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37611543-08C2-4848-AF8F-F24A49BD9CB0}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -852,7 +734,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -861,73 +743,106 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>9</v>
+      <c r="B3" s="1">
+        <v>3.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="1">
+        <v>3.3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
+      <c r="B5" s="1">
+        <v>3.4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>13</v>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
+      <c r="B7" s="1">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
+      <c r="B8" s="1">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
+      <c r="B9" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29758C79-9492-4BE1-B770-EC3B20DE8946}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -949,75 +864,81 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="1">
+        <v>2.1</v>
+      </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
+      <c r="B3" s="3">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>20</v>
+      <c r="B5" s="2">
+        <v>4.2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>21</v>
+      <c r="B6" s="2">
+        <v>4.3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B8" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
+      <c r="B9" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/01-memo/进度管理/文档进度.xlsx
+++ b/01-memo/进度管理/文档进度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041A4467-AE9D-4863-B623-07B9BAA778CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C22A90-BF5C-4FAC-AA4D-8F7214EFBDFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="陈薇薇" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -141,6 +141,16 @@
   </si>
   <si>
     <t>S2D3</t>
+  </si>
+  <si>
+    <t>缺少技术框架图，核心技术图，系统架构图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少预约流程图，查询流程图</t>
+  </si>
+  <si>
+    <t>缺少基本架构图，查询功能流程图，预约功能流程图</t>
   </si>
 </sst>
 </file>
@@ -505,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -841,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29758C79-9492-4BE1-B770-EC3B20DE8946}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -874,12 +884,23 @@
       <c r="B2" s="1">
         <v>2.1</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>2.2000000000000002</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -897,11 +918,13 @@
       <c r="B5" s="2">
         <v>4.2</v>
       </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4.3</v>
       </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -910,18 +933,27 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1.2</v>
       </c>
       <c r="C8" s="2"/>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1.3</v>
       </c>
       <c r="C9" s="2"/>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -930,15 +962,27 @@
       <c r="B10" s="1">
         <v>2.1</v>
       </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>2.2000000000000002</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>2.2999999999999998</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/01-memo/进度管理/文档进度.xlsx
+++ b/01-memo/进度管理/文档进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C22A90-BF5C-4FAC-AA4D-8F7214EFBDFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4B3996-B357-4FC0-834A-63B54C9B3CE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -852,7 +852,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -912,19 +912,25 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>4.2</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4.3</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">

--- a/01-memo/进度管理/文档进度.xlsx
+++ b/01-memo/进度管理/文档进度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4B3996-B357-4FC0-834A-63B54C9B3CE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E960E8-AD61-4216-BCEE-6E5F96170431}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="陈薇薇" sheetId="1" r:id="rId1"/>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -548,11 +548,17 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -564,6 +570,9 @@
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -572,6 +581,9 @@
       <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -579,6 +591,9 @@
       </c>
       <c r="C6" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -851,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29758C79-9492-4BE1-B770-EC3B20DE8946}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
